--- a/inputs compound generator/inputs/compound_features.xlsx
+++ b/inputs compound generator/inputs/compound_features.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\ICRA\txt_in_outs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\ICRA\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE0CB96-CF2F-4E44-AA52-51AF62B221EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A387AAA-7C3B-42EA-A16B-61AF9E92A213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{E2AB2CE8-E54D-4969-B913-27EBF708D95D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="238">
   <si>
     <t>Nom</t>
   </si>
@@ -751,6 +751,9 @@
   </si>
   <si>
     <t>ben_hlife</t>
+  </si>
+  <si>
+    <t>koc</t>
   </si>
 </sst>
 </file>
@@ -888,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -929,6 +932,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,13 +1250,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC907DEE-C603-4A43-B1C9-FE43BB4B9094}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I67" sqref="I67"/>
+      <selection pane="bottomRight" activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,7 +1273,7 @@
     <col min="10" max="10" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="174" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="174" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>227</v>
       </c>
@@ -1297,8 +1304,11 @@
       <c r="J1" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1329,8 +1339,11 @@
       <c r="J2" s="12">
         <v>0.79993073790777081</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1361,8 +1374,11 @@
       <c r="J3" s="12">
         <v>0.64394577287617194</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1393,8 +1409,11 @@
       <c r="J4" s="12">
         <v>0.9760601435931624</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1444,11 @@
       <c r="J5" s="16">
         <v>0.65428798621803219</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1459,8 +1481,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1491,8 +1516,11 @@
       <c r="J7" s="13">
         <v>1.2680030616009312</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1523,8 +1551,11 @@
       <c r="J8" s="13">
         <v>0.95036260055407962</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1555,8 +1586,11 @@
       <c r="J9" s="13">
         <v>0.86651755297128708</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1587,8 +1621,11 @@
       <c r="J10" s="13">
         <v>1.7454131791696705</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1619,8 +1656,11 @@
       <c r="J11" s="13">
         <v>2.525707431112262</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1651,8 +1691,11 @@
       <c r="J12" s="13">
         <v>3.3750885117993459</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1683,8 +1726,11 @@
       <c r="J13" s="13">
         <v>0.82129355643861934</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1715,8 +1761,11 @@
       <c r="J14" s="13">
         <v>3.2343478684443667</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1749,8 +1798,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1783,8 +1835,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1817,8 +1872,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1851,8 +1909,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1883,8 +1944,11 @@
       <c r="J19" s="13">
         <v>0.5369137674898542</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1915,8 +1979,11 @@
       <c r="J20" s="13">
         <v>1.5369607024697367</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -1947,8 +2014,11 @@
       <c r="J21" s="13">
         <v>0.38253954168149329</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1979,8 +2049,11 @@
       <c r="J22" s="13">
         <v>1.6480794317046572</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -2011,8 +2084,11 @@
       <c r="J23" s="13">
         <v>1.4874032506832924</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -2043,8 +2119,11 @@
       <c r="J24" s="13">
         <v>2.1100109564821601</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -2077,8 +2156,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -2109,8 +2191,11 @@
       <c r="J26" s="13">
         <v>0.91804827430790825</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -2141,8 +2226,11 @@
       <c r="J27" s="13">
         <v>0.66025202211369305</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -2173,8 +2261,11 @@
       <c r="J28" s="13">
         <v>1.1248990138078943</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -2205,8 +2296,11 @@
       <c r="J29" s="13">
         <v>0.40421496148163438</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -2237,8 +2331,11 @@
       <c r="J30" s="13">
         <v>0.17718382013555792</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -2269,8 +2366,11 @@
       <c r="J31" s="13">
         <v>0.66025202211369305</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -2301,8 +2401,11 @@
       <c r="J32" s="13">
         <v>0.17718382013555792</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2333,8 +2436,11 @@
       <c r="J33" s="13">
         <v>37.221421707399358</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>47</v>
       </c>
@@ -2365,8 +2471,11 @@
       <c r="J34" s="12">
         <v>1.0779254332816763</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -2397,8 +2506,11 @@
       <c r="J35" s="12">
         <v>4637.1845926636579</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
@@ -2429,8 +2541,11 @@
       <c r="J36" s="12">
         <v>0.43604164240718041</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -2461,8 +2576,11 @@
       <c r="J37" s="12">
         <v>1.0537582073575544</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K37" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
@@ -2495,8 +2613,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K38" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
@@ -2529,8 +2650,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K39" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
@@ -2563,8 +2687,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>54</v>
       </c>
@@ -2595,8 +2722,11 @@
       <c r="J41" s="12">
         <v>2.1279798681506534</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K41" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
@@ -2629,8 +2759,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K42" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>56</v>
       </c>
@@ -2661,8 +2794,11 @@
       <c r="J43" s="12">
         <v>2.1298111477804422</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>57</v>
       </c>
@@ -2695,8 +2831,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K44" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -2727,8 +2866,11 @@
       <c r="J45" s="12">
         <v>4.3764067335048225</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K45" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -2761,8 +2903,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K46" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -2795,8 +2940,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K47" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2977,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
@@ -2863,8 +3014,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>63</v>
       </c>
@@ -2895,8 +3049,11 @@
       <c r="J50" s="14">
         <v>1.9380977747440384</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K50" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
@@ -2927,8 +3084,11 @@
       <c r="J51" s="14">
         <v>0.18992109393150994</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K51" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -2959,8 +3119,11 @@
       <c r="J52" s="14">
         <v>0.17253697012541502</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K52" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
@@ -2993,8 +3156,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K53" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
@@ -3025,8 +3191,11 @@
       <c r="J54" s="14">
         <v>0.5757166424934449</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K54" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>68</v>
       </c>
@@ -3057,8 +3226,11 @@
       <c r="J55" s="14">
         <v>0.36087697620281139</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K55" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>69</v>
       </c>
@@ -3089,8 +3261,11 @@
       <c r="J56" s="14">
         <v>0.57891156735035998</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K56" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>70</v>
       </c>
@@ -3121,8 +3296,11 @@
       <c r="J57" s="14">
         <v>0.75605812964993069</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K57" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>71</v>
       </c>
@@ -3153,8 +3331,11 @@
       <c r="J58" s="14">
         <v>0.82129355643861934</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K58" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>72</v>
       </c>
@@ -3185,8 +3366,11 @@
       <c r="J59" s="14">
         <v>0.82129355643861934</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K59" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>73</v>
       </c>
@@ -3219,8 +3403,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K60" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
@@ -3243,8 +3430,11 @@
         <v>2E-3</v>
       </c>
       <c r="J61" s="14"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K61" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>75</v>
       </c>
@@ -3277,8 +3467,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K62" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>77</v>
       </c>
@@ -3309,8 +3502,11 @@
       <c r="J63" s="14">
         <v>0.54451364536386027</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K63" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>78</v>
       </c>
@@ -3341,8 +3537,11 @@
       <c r="J64" s="14">
         <v>2.4452785614560479</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K64" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>79</v>
       </c>
@@ -3375,8 +3574,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K65" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>80</v>
       </c>
@@ -3407,8 +3609,11 @@
       <c r="J66" s="14">
         <v>3.5706553951741165</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K66" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>81</v>
       </c>
@@ -3441,8 +3646,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K67" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>82</v>
       </c>
@@ -3475,8 +3683,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K68" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>83</v>
       </c>
@@ -3507,8 +3718,11 @@
       <c r="J69" s="14">
         <v>2.2936627416224891</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K69" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>84</v>
       </c>
@@ -3541,8 +3755,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K70" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>85</v>
       </c>
@@ -3575,8 +3792,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K71" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>86</v>
       </c>
@@ -3609,8 +3829,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K72" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>87</v>
       </c>
@@ -3643,8 +3866,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K73" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>88</v>
       </c>
@@ -3677,8 +3903,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K74" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>89</v>
       </c>
@@ -3711,8 +3940,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K75" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>90</v>
       </c>
@@ -3735,8 +3967,11 @@
         <v>2E-3</v>
       </c>
       <c r="J76" s="14"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K76" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>91</v>
       </c>
@@ -3759,8 +3994,11 @@
         <v>2E-3</v>
       </c>
       <c r="J77" s="14"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K77" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>92</v>
       </c>
@@ -3791,8 +4029,11 @@
       <c r="J78" s="14">
         <v>0.66025202211369305</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K78" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>93</v>
       </c>
@@ -3823,8 +4064,11 @@
       <c r="J79" s="14">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K79" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
         <v>94</v>
       </c>
@@ -3857,8 +4101,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K80" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>95</v>
       </c>
@@ -3889,8 +4136,11 @@
       <c r="J81" s="14">
         <v>0.36087697620281139</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K81" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>96</v>
       </c>
@@ -3913,8 +4163,11 @@
         <v>2E-3</v>
       </c>
       <c r="J82" s="12"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K82" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>97</v>
       </c>
@@ -3947,8 +4200,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K83" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>98</v>
       </c>
@@ -3979,8 +4235,11 @@
       <c r="J84" s="12">
         <v>147.91734366796078</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K84" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>99</v>
       </c>
@@ -4013,8 +4272,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K85" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>100</v>
       </c>
@@ -4037,8 +4299,11 @@
         <v>2E-3</v>
       </c>
       <c r="J86" s="12"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K86" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>101</v>
       </c>
@@ -4071,8 +4336,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K87" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>102</v>
       </c>
@@ -4105,8 +4373,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K88" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>103</v>
       </c>
@@ -4139,8 +4410,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K89" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>104</v>
       </c>
@@ -4173,8 +4447,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K90" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>105</v>
       </c>
@@ -4205,8 +4482,11 @@
       <c r="J91" s="12">
         <v>0.45778646386462368</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K91" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>106</v>
       </c>
@@ -4237,8 +4517,11 @@
       <c r="J92" s="12">
         <v>0.91804827430790825</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K92" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>107</v>
       </c>
@@ -4269,8 +4552,11 @@
       <c r="J93" s="12">
         <v>13.973800627175265</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K93" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>108</v>
       </c>
@@ -4293,8 +4579,11 @@
         <v>2E-3</v>
       </c>
       <c r="J94" s="12"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K94" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>109</v>
       </c>
@@ -4317,8 +4606,11 @@
         <v>2E-3</v>
       </c>
       <c r="J95" s="12"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K95" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>110</v>
       </c>
@@ -4351,8 +4643,11 @@
         <f>J100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K96" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>111</v>
       </c>
@@ -4383,8 +4678,11 @@
       <c r="J97" s="12">
         <v>4.0029661447396148</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K97" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>112</v>
       </c>
@@ -4397,8 +4695,11 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K98" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>113</v>
       </c>
@@ -4411,8 +4712,11 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K99" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>114</v>
       </c>
@@ -4425,6 +4729,9 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
+      <c r="K100" s="19">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J100" xr:uid="{DC907DEE-C603-4A43-B1C9-FE43BB4B9094}"/>
@@ -6405,6 +6712,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fdb32b0a-6df1-4593-bf63-7f71602d9d10">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="057d7b64-f508-48ef-9a0e-79d33157fe45" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001A5AD457E8C9A440B1EE1EBBE67BEAE9" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="714df8915607d63f81c71e76cb068bfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdb32b0a-6df1-4593-bf63-7f71602d9d10" xmlns:ns3="057d7b64-f508-48ef-9a0e-79d33157fe45" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b557d1b9944ae23a8786c2716089cc86" ns2:_="" ns3:_="">
     <xsd:import namespace="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
@@ -6641,17 +6959,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fdb32b0a-6df1-4593-bf63-7f71602d9d10">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="057d7b64-f508-48ef-9a0e-79d33157fe45" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6662,6 +6969,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5AD974-7C31-459C-BBF7-CA441A681369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
+    <ds:schemaRef ds:uri="057d7b64-f508-48ef-9a0e-79d33157fe45"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BB922F-3284-40C2-97E7-591ABBCC60B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6680,17 +6998,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5AD974-7C31-459C-BBF7-CA441A681369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
-    <ds:schemaRef ds:uri="057d7b64-f508-48ef-9a0e-79d33157fe45"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C61ADF3-5C42-4E1E-955C-0678CB4151CD}">
   <ds:schemaRefs>

--- a/inputs compound generator/inputs/compound_features.xlsx
+++ b/inputs compound generator/inputs/compound_features.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\ICRA\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A387AAA-7C3B-42EA-A16B-61AF9E92A213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A838A52-A528-4879-A663-099561C332B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{E2AB2CE8-E54D-4969-B913-27EBF708D95D}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{E2AB2CE8-E54D-4969-B913-27EBF708D95D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$100</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="240">
   <si>
     <t>Nom</t>
   </si>
@@ -387,6 +387,12 @@
     <t>Xilè</t>
   </si>
   <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>MEDIANA</t>
+  </si>
+  <si>
     <t>Aquatic pollutant reaction coefficient (1/day)</t>
   </si>
   <si>
@@ -723,37 +729,37 @@
     <t>Dichlorobenzene</t>
   </si>
   <si>
+    <t>solub</t>
+  </si>
+  <si>
+    <t>aq_volat</t>
+  </si>
+  <si>
+    <t>aq_life</t>
+  </si>
+  <si>
+    <t>mol_wt</t>
+  </si>
+  <si>
+    <t>aq_resus</t>
+  </si>
+  <si>
+    <t>aq_settle</t>
+  </si>
+  <si>
+    <t>ben_act_dep</t>
+  </si>
+  <si>
+    <t>ben_bury</t>
+  </si>
+  <si>
+    <t>ben_hlife</t>
+  </si>
+  <si>
+    <t>soil_ads</t>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>solub</t>
-  </si>
-  <si>
-    <t>aq_hlife</t>
-  </si>
-  <si>
-    <t>aq_volat</t>
-  </si>
-  <si>
-    <t>mol_wt</t>
-  </si>
-  <si>
-    <t>aq_resus</t>
-  </si>
-  <si>
-    <t>aq_settle</t>
-  </si>
-  <si>
-    <t>ben_act_dep</t>
-  </si>
-  <si>
-    <t>ben_bury</t>
-  </si>
-  <si>
-    <t>ben_hlife</t>
-  </si>
-  <si>
-    <t>koc</t>
   </si>
 </sst>
 </file>
@@ -764,7 +770,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,8 +838,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,8 +864,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -887,11 +911,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -929,13 +966,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1250,13 +1309,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC907DEE-C603-4A43-B1C9-FE43BB4B9094}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J103" sqref="J103"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1271,41 +1330,42 @@
     <col min="8" max="8" width="17.7265625" customWidth="1"/>
     <col min="9" max="9" width="16.54296875" customWidth="1"/>
     <col min="10" max="10" width="40.1796875" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="174" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>230</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="K1" s="18" t="s">
         <v>237</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1336,11 +1396,11 @@
       <c r="I2" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="21">
         <v>0.79993073790777081</v>
       </c>
-      <c r="K2" s="19">
-        <v>0</v>
+      <c r="K2" s="25">
+        <v>14.3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1371,11 +1431,11 @@
       <c r="I3" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="21">
         <v>0.64394577287617194</v>
       </c>
-      <c r="K3" s="19">
-        <v>0</v>
+      <c r="K3" s="25">
+        <v>14.3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1406,11 +1466,11 @@
       <c r="I4" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="21">
         <v>0.9760601435931624</v>
       </c>
-      <c r="K4" s="19">
-        <v>0</v>
+      <c r="K4" s="25">
+        <v>14.3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1444,8 +1504,8 @@
       <c r="J5" s="16">
         <v>0.65428798621803219</v>
       </c>
-      <c r="K5" s="19">
-        <v>0</v>
+      <c r="K5" s="25">
+        <v>14.3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1455,9 +1515,9 @@
       <c r="B6" s="2">
         <v>81420</v>
       </c>
-      <c r="C6" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C6" s="13">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D6" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1477,12 +1537,12 @@
       <c r="I6" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J6" s="13">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0</v>
+      <c r="J6" s="22">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K6" s="25">
+        <v>14.3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1513,11 +1573,11 @@
       <c r="I7" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="22">
         <v>1.2680030616009312</v>
       </c>
-      <c r="K7" s="19">
-        <v>0</v>
+      <c r="K7" s="25">
+        <v>14.3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1548,11 +1608,11 @@
       <c r="I8" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="22">
         <v>0.95036260055407962</v>
       </c>
-      <c r="K8" s="19">
-        <v>0</v>
+      <c r="K8" s="25">
+        <v>14.3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -1583,11 +1643,11 @@
       <c r="I9" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="22">
         <v>0.86651755297128708</v>
       </c>
-      <c r="K9" s="19">
-        <v>0</v>
+      <c r="K9" s="25">
+        <v>14.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1618,11 +1678,11 @@
       <c r="I10" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="22">
         <v>1.7454131791696705</v>
       </c>
-      <c r="K10" s="19">
-        <v>0</v>
+      <c r="K10" s="25">
+        <v>14.3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1653,11 +1713,11 @@
       <c r="I11" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="22">
         <v>2.525707431112262</v>
       </c>
-      <c r="K11" s="19">
-        <v>0</v>
+      <c r="K11" s="26">
+        <v>20400</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1688,11 +1748,11 @@
       <c r="I12" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="22">
         <v>3.3750885117993459</v>
       </c>
-      <c r="K12" s="19">
-        <v>0</v>
+      <c r="K12" s="26">
+        <v>70900</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1723,11 +1783,11 @@
       <c r="I13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="22">
         <v>0.82129355643861934</v>
       </c>
-      <c r="K13" s="19">
-        <v>0</v>
+      <c r="K13" s="26">
+        <v>803000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1758,11 +1818,11 @@
       <c r="I14" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="22">
         <v>3.2343478684443667</v>
       </c>
-      <c r="K14" s="19">
-        <v>0</v>
+      <c r="K14" s="27">
+        <v>3380</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1772,9 +1832,9 @@
       <c r="B15" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C15" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C15" s="13">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D15" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1794,12 +1854,12 @@
       <c r="I15" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J15" s="13">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="19">
-        <v>0</v>
+      <c r="J15" s="22">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K15" s="26">
+        <v>254000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1809,9 +1869,9 @@
       <c r="B16" s="2">
         <v>0.17430000000000001</v>
       </c>
-      <c r="C16" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C16" s="13">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D16" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1831,12 +1891,12 @@
       <c r="I16" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J16" s="13">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="19">
-        <v>0</v>
+      <c r="J16" s="22">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K16" s="26">
+        <v>598000</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1846,9 +1906,9 @@
       <c r="B17" s="2">
         <v>2.7859999999999999E-2</v>
       </c>
-      <c r="C17" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C17" s="13">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D17" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1868,12 +1928,12 @@
       <c r="I17" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J17" s="13">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="19">
-        <v>0</v>
+      <c r="J17" s="22">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K17" s="26">
+        <v>2680000</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1883,9 +1943,9 @@
       <c r="B18" s="2">
         <v>2.4910000000000002E-3</v>
       </c>
-      <c r="C18" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C18" s="13">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D18" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1905,12 +1965,12 @@
       <c r="I18" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J18" s="13">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="19">
-        <v>0</v>
+      <c r="J18" s="22">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K18" s="26">
+        <v>33700</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1941,11 +2001,11 @@
       <c r="I19" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="22">
         <v>0.5369137674898542</v>
       </c>
-      <c r="K19" s="19">
-        <v>0</v>
+      <c r="K19" s="26">
+        <v>62200</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1976,11 +2036,11 @@
       <c r="I20" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="22">
         <v>1.5369607024697367</v>
       </c>
-      <c r="K20" s="19">
-        <v>0</v>
+      <c r="K20" s="26">
+        <v>60900</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -2011,11 +2071,11 @@
       <c r="I21" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="22">
         <v>0.38253954168149329</v>
       </c>
-      <c r="K21" s="19">
-        <v>0</v>
+      <c r="K21" s="26">
+        <v>35.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -2046,11 +2106,11 @@
       <c r="I22" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="22">
         <v>1.6480794317046572</v>
       </c>
-      <c r="K22" s="19">
-        <v>0</v>
+      <c r="K22" s="26">
+        <v>1530</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -2081,11 +2141,11 @@
       <c r="I23" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="22">
         <v>1.4874032506832924</v>
       </c>
-      <c r="K23" s="19">
-        <v>0</v>
+      <c r="K23" s="26">
+        <v>905</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -2116,11 +2176,11 @@
       <c r="I24" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="22">
         <v>2.1100109564821601</v>
       </c>
-      <c r="K24" s="19">
-        <v>0</v>
+      <c r="K24" s="26">
+        <v>1460</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -2130,9 +2190,9 @@
       <c r="B25" s="2">
         <v>3670</v>
       </c>
-      <c r="C25" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C25" s="13">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D25" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2152,12 +2212,12 @@
       <c r="I25" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J25" s="13">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="19">
-        <v>0</v>
+      <c r="J25" s="22">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K25" s="26">
+        <v>3330</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -2188,11 +2248,11 @@
       <c r="I26" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J26" s="13">
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K26" s="19">
-        <v>0</v>
+      <c r="J26" s="22">
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K26" s="26">
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -2223,11 +2283,11 @@
       <c r="I27" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="22">
         <v>0.66025202211369305</v>
       </c>
-      <c r="K27" s="19">
-        <v>0</v>
+      <c r="K27" s="26">
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -2258,11 +2318,11 @@
       <c r="I28" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="22">
         <v>1.1248990138078943</v>
       </c>
-      <c r="K28" s="19">
-        <v>0</v>
+      <c r="K28" s="26">
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -2293,11 +2353,11 @@
       <c r="I29" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="22">
         <v>0.40421496148163438</v>
       </c>
-      <c r="K29" s="19">
-        <v>0</v>
+      <c r="K29" s="26">
+        <v>6830</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -2328,11 +2388,11 @@
       <c r="I30" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="22">
         <v>0.17718382013555792</v>
       </c>
-      <c r="K30" s="19">
-        <v>0</v>
+      <c r="K30" s="26">
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -2363,11 +2423,11 @@
       <c r="I31" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="22">
         <v>0.66025202211369305</v>
       </c>
-      <c r="K31" s="19">
-        <v>0</v>
+      <c r="K31" s="26">
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -2398,11 +2458,11 @@
       <c r="I32" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="22">
         <v>0.17718382013555792</v>
       </c>
-      <c r="K32" s="19">
-        <v>0</v>
+      <c r="K32" s="26">
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -2433,11 +2493,11 @@
       <c r="I33" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="22">
         <v>37.221421707399358</v>
       </c>
-      <c r="K33" s="19">
-        <v>0</v>
+      <c r="K33" s="25">
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -2468,11 +2528,11 @@
       <c r="I34" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="21">
         <v>1.0779254332816763</v>
       </c>
-      <c r="K34" s="19">
-        <v>0</v>
+      <c r="K34" s="25">
+        <v>35.04</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -2503,11 +2563,11 @@
       <c r="I35" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="21">
         <v>4637.1845926636579</v>
       </c>
-      <c r="K35" s="19">
-        <v>0</v>
+      <c r="K35" s="26">
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -2538,11 +2598,11 @@
       <c r="I36" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="21">
         <v>0.43604164240718041</v>
       </c>
-      <c r="K36" s="19">
-        <v>0</v>
+      <c r="K36" s="26">
+        <v>994</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -2573,11 +2633,11 @@
       <c r="I37" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="21">
         <v>1.0537582073575544</v>
       </c>
-      <c r="K37" s="19">
-        <v>0</v>
+      <c r="K37" s="26">
+        <v>10800</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -2587,9 +2647,9 @@
       <c r="B38" s="2">
         <v>0.19220000000000001</v>
       </c>
-      <c r="C38" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C38" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D38" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2609,12 +2669,12 @@
       <c r="I38" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J38" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="19">
-        <v>0</v>
+      <c r="J38" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K38" s="26">
+        <v>3380</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2624,9 +2684,9 @@
       <c r="B39" s="2">
         <v>4.0439999999999996</v>
       </c>
-      <c r="C39" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C39" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D39" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2646,12 +2706,12 @@
       <c r="I39" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J39" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="19">
-        <v>0</v>
+      <c r="J39" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K39" s="26">
+        <v>3380</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2661,9 +2721,9 @@
       <c r="B40" s="2">
         <v>4.0439999999999996</v>
       </c>
-      <c r="C40" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C40" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D40" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2683,12 +2743,12 @@
       <c r="I40" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J40" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="19">
-        <v>0</v>
+      <c r="J40" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K40" s="26">
+        <v>3380</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -2719,11 +2779,11 @@
       <c r="I41" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="21">
         <v>2.1279798681506534</v>
       </c>
-      <c r="K41" s="19">
-        <v>0</v>
+      <c r="K41" s="26">
+        <v>106000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -2733,9 +2793,9 @@
       <c r="B42" s="2">
         <v>4.0439999999999996</v>
       </c>
-      <c r="C42" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C42" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D42" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2755,12 +2815,12 @@
       <c r="I42" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J42" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="19">
-        <v>0</v>
+      <c r="J42" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K42" s="26">
+        <v>3380</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -2791,11 +2851,11 @@
       <c r="I43" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="21">
         <v>2.1298111477804422</v>
       </c>
-      <c r="K43" s="19">
-        <v>0</v>
+      <c r="K43" s="26">
+        <v>106000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -2805,9 +2865,9 @@
       <c r="B44" s="2">
         <v>0.7772</v>
       </c>
-      <c r="C44" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C44" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D44" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2827,12 +2887,12 @@
       <c r="I44" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J44" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="19">
-        <v>0</v>
+      <c r="J44" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K44" s="26">
+        <v>10500</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -2863,11 +2923,11 @@
       <c r="I45" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="21">
         <v>4.3764067335048225</v>
       </c>
-      <c r="K45" s="19">
-        <v>0</v>
+      <c r="K45" s="26">
+        <v>22000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -2877,9 +2937,9 @@
       <c r="B46" s="2">
         <v>0.14549999999999999</v>
       </c>
-      <c r="C46" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C46" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D46" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2899,12 +2959,12 @@
       <c r="I46" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J46" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="19">
-        <v>0</v>
+      <c r="J46" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K46" s="26">
+        <v>10600</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -2914,9 +2974,9 @@
       <c r="B47" s="2">
         <v>0.25</v>
       </c>
-      <c r="C47" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C47" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D47" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2936,12 +2996,12 @@
       <c r="I47" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J47" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="19">
-        <v>0</v>
+      <c r="J47" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K47" s="28">
+        <v>10600</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -2951,9 +3011,9 @@
       <c r="B48" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C48" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C48" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D48" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2973,12 +3033,12 @@
       <c r="I48" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J48" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="19">
-        <v>0</v>
+      <c r="J48" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K48" s="26">
+        <v>225000</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2988,9 +3048,9 @@
       <c r="B49" s="2">
         <v>0.09</v>
       </c>
-      <c r="C49" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C49" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D49" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3010,12 +3070,12 @@
       <c r="I49" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J49" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="19">
-        <v>0</v>
+      <c r="J49" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K49" s="26">
+        <v>153000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -3046,11 +3106,11 @@
       <c r="I50" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="23">
         <v>1.9380977747440384</v>
       </c>
-      <c r="K50" s="19">
-        <v>0</v>
+      <c r="K50" s="26">
+        <v>220000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -3081,11 +3141,11 @@
       <c r="I51" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="23">
         <v>0.18992109393150994</v>
       </c>
-      <c r="K51" s="19">
-        <v>0</v>
+      <c r="K51" s="26">
+        <v>48.6</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -3116,11 +3176,11 @@
       <c r="I52" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="23">
         <v>0.17253697012541502</v>
       </c>
-      <c r="K52" s="19">
-        <v>0</v>
+      <c r="K52" s="26">
+        <v>48.6</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -3130,9 +3190,9 @@
       <c r="B53" s="2">
         <v>2000</v>
       </c>
-      <c r="C53" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C53" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D53" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3152,12 +3212,12 @@
       <c r="I53" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J53" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="19">
-        <v>0</v>
+      <c r="J53" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K53" s="26">
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -3188,11 +3248,11 @@
       <c r="I54" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="23">
         <v>0.5757166424934449</v>
       </c>
-      <c r="K54" s="19">
-        <v>0</v>
+      <c r="K54" s="26">
+        <v>43.8</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -3223,11 +3283,11 @@
       <c r="I55" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="23">
         <v>0.36087697620281139</v>
       </c>
-      <c r="K55" s="19">
-        <v>0</v>
+      <c r="K55" s="26">
+        <v>67.7</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -3258,11 +3318,11 @@
       <c r="I56" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="23">
         <v>0.57891156735035998</v>
       </c>
-      <c r="K56" s="19">
-        <v>0</v>
+      <c r="K56" s="26">
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -3293,11 +3353,11 @@
       <c r="I57" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="23">
         <v>0.75605812964993069</v>
       </c>
-      <c r="K57" s="19">
-        <v>0</v>
+      <c r="K57" s="26">
+        <v>518</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -3328,11 +3388,11 @@
       <c r="I58" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="23">
         <v>0.82129355643861934</v>
       </c>
-      <c r="K58" s="19">
-        <v>0</v>
+      <c r="K58" s="27">
+        <v>3380</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -3363,11 +3423,11 @@
       <c r="I59" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="23">
         <v>0.82129355643861934</v>
       </c>
-      <c r="K59" s="19">
-        <v>0</v>
+      <c r="K59" s="27">
+        <v>3380</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -3377,9 +3437,9 @@
       <c r="B60" s="2">
         <v>17.71</v>
       </c>
-      <c r="C60" s="14" t="e">
-        <f>A1=#REF!</f>
-        <v>#REF!</v>
+      <c r="C60" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D60" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3399,24 +3459,32 @@
       <c r="I60" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J60" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K60" s="19">
-        <v>0</v>
+      <c r="J60" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K60" s="26">
+        <v>733</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="8">
+        <v>6.9459999999999997</v>
+      </c>
+      <c r="C61">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
+      </c>
       <c r="D61" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E61" s="2"/>
+      <c r="E61" s="8">
+        <f>E104</f>
+        <v>220.66300000000001</v>
+      </c>
       <c r="F61" s="1">
         <v>2E-3</v>
       </c>
@@ -3429,9 +3497,12 @@
       <c r="I61" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="19">
-        <v>0</v>
+      <c r="J61" s="31">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K61" s="27">
+        <v>3380</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -3441,9 +3512,9 @@
       <c r="B62" s="2">
         <v>1.8E-3</v>
       </c>
-      <c r="C62" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C62" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D62" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3463,12 +3534,12 @@
       <c r="I62" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J62" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="19">
-        <v>0</v>
+      <c r="J62" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K62" s="29">
+        <v>30809.77</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -3499,11 +3570,11 @@
       <c r="I63" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="23">
         <v>0.54451364536386027</v>
       </c>
-      <c r="K63" s="19">
-        <v>0</v>
+      <c r="K63" s="25">
+        <v>865.5</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -3534,11 +3605,11 @@
       <c r="I64" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="23">
         <v>2.4452785614560479</v>
       </c>
-      <c r="K64" s="19">
-        <v>0</v>
+      <c r="K64" s="26">
+        <v>1640000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -3548,9 +3619,9 @@
       <c r="B65" s="2">
         <v>335.5</v>
       </c>
-      <c r="C65" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C65" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D65" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3570,12 +3641,12 @@
       <c r="I65" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J65" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="19">
-        <v>0</v>
+      <c r="J65" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K65" s="26">
+        <v>52800</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -3606,11 +3677,11 @@
       <c r="I66" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="23">
         <v>3.5706553951741165</v>
       </c>
-      <c r="K66" s="19">
-        <v>0</v>
+      <c r="K66" s="25">
+        <v>1938</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -3620,9 +3691,9 @@
       <c r="B67" s="2">
         <v>1.9670000000000001</v>
       </c>
-      <c r="C67" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C67" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D67" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3642,12 +3713,12 @@
       <c r="I67" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J67" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K67" s="19">
-        <v>0</v>
+      <c r="J67" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K67" s="26">
+        <v>88300</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -3657,9 +3728,9 @@
       <c r="B68" s="2">
         <v>4.133</v>
       </c>
-      <c r="C68" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C68" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D68" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3679,12 +3750,12 @@
       <c r="I68" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J68" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="19">
-        <v>0</v>
+      <c r="J68" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K68" s="26">
+        <v>43400</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -3715,11 +3786,11 @@
       <c r="I69" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="23">
         <v>2.2936627416224891</v>
       </c>
-      <c r="K69" s="19">
-        <v>0</v>
+      <c r="K69" s="26">
+        <v>61400</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
@@ -3729,9 +3800,9 @@
       <c r="B70" s="2">
         <v>1.5469999999999999</v>
       </c>
-      <c r="C70" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C70" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D70" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3751,12 +3822,12 @@
       <c r="I70" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J70" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K70" s="19">
-        <v>0</v>
+      <c r="J70" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K70" s="26">
+        <v>178000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -3766,9 +3837,9 @@
       <c r="B71" s="2">
         <v>1.3440000000000001</v>
       </c>
-      <c r="C71" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C71" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D71" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3788,12 +3859,12 @@
       <c r="I71" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J71" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K71" s="19">
-        <v>0</v>
+      <c r="J71" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K71" s="26">
+        <v>2680</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
@@ -3803,9 +3874,9 @@
       <c r="B72" s="2">
         <v>7.6479999999999997</v>
       </c>
-      <c r="C72" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C72" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D72" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3825,12 +3896,12 @@
       <c r="I72" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J72" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K72" s="19">
-        <v>0</v>
+      <c r="J72" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K72" s="26">
+        <v>20700</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
@@ -3840,9 +3911,9 @@
       <c r="B73" s="2">
         <v>4.1420000000000003</v>
       </c>
-      <c r="C73" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C73" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D73" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3862,12 +3933,12 @@
       <c r="I73" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J73" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K73" s="19">
-        <v>0</v>
+      <c r="J73" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K73" s="26">
+        <v>125000</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
@@ -3877,9 +3948,9 @@
       <c r="B74" s="2">
         <v>0.2281</v>
       </c>
-      <c r="C74" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C74" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D74" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3899,12 +3970,12 @@
       <c r="I74" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J74" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="19">
-        <v>0</v>
+      <c r="J74" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K74" s="26">
+        <v>156000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
@@ -3914,9 +3985,9 @@
       <c r="B75" s="2">
         <v>0.47060000000000002</v>
       </c>
-      <c r="C75" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C75" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D75" s="1">
         <v>1.0000000000000001E-5</v>
@@ -3936,24 +4007,32 @@
       <c r="I75" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J75" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K75" s="19">
-        <v>0</v>
+      <c r="J75" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K75" s="26">
+        <v>37700</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="14"/>
+      <c r="B76" s="8">
+        <v>6.9459999999999997</v>
+      </c>
+      <c r="C76">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
+      </c>
       <c r="D76" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="8">
+        <f>E104</f>
+        <v>220.66300000000001</v>
+      </c>
       <c r="F76" s="1">
         <v>2E-3</v>
       </c>
@@ -3966,21 +4045,32 @@
       <c r="I76" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J76" s="14"/>
-      <c r="K76" s="19">
-        <v>0</v>
+      <c r="J76" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K76" s="27">
+        <v>3380</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="14"/>
+      <c r="B77" s="8">
+        <v>6.9459999999999997</v>
+      </c>
+      <c r="C77">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
+      </c>
       <c r="D77" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="E77" s="8">
+        <f>E104</f>
+        <v>220.66300000000001</v>
+      </c>
       <c r="F77" s="1">
         <v>2E-3</v>
       </c>
@@ -3993,9 +4083,12 @@
       <c r="I77" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="19">
-        <v>0</v>
+      <c r="J77" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K77" s="27">
+        <v>3380</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
@@ -4026,11 +4119,11 @@
       <c r="I78" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J78" s="23">
         <v>0.66025202211369305</v>
       </c>
-      <c r="K78" s="19">
-        <v>0</v>
+      <c r="K78" s="26">
+        <v>23.7</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
@@ -4061,23 +4154,23 @@
       <c r="I79" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J79" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K79" s="19">
-        <v>0</v>
+      <c r="J79" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="K79" s="27">
+        <v>3380</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="18" t="s">
         <v>94</v>
       </c>
       <c r="B80" s="2">
         <v>3.09</v>
       </c>
-      <c r="C80" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C80" s="14">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D80" s="1">
         <v>1.0000000000000001E-5</v>
@@ -4097,12 +4190,12 @@
       <c r="I80" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J80" s="14">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K80" s="19">
-        <v>0</v>
+      <c r="J80" s="23">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K80" s="25">
+        <v>3380</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -4133,23 +4226,31 @@
       <c r="I81" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J81" s="23">
         <v>0.36087697620281139</v>
       </c>
-      <c r="K81" s="19">
-        <v>0</v>
+      <c r="K81" s="25">
+        <v>106.8</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="12"/>
+      <c r="B82" s="8">
+        <v>6.9459999999999997</v>
+      </c>
+      <c r="C82" s="20">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
+      </c>
       <c r="D82" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E82" s="2"/>
+      <c r="E82" s="8">
+        <f>E104</f>
+        <v>220.66300000000001</v>
+      </c>
       <c r="F82" s="1">
         <v>2E-3</v>
       </c>
@@ -4162,9 +4263,12 @@
       <c r="I82" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J82" s="12"/>
-      <c r="K82" s="19">
-        <v>0</v>
+      <c r="J82" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K82" s="27">
+        <v>3380</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -4174,9 +4278,9 @@
       <c r="B83" s="2">
         <v>12.2</v>
       </c>
-      <c r="C83" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C83" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D83" s="1">
         <v>1.0000000000000001E-5</v>
@@ -4196,12 +4300,12 @@
       <c r="I83" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J83" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K83" s="19">
-        <v>0</v>
+      <c r="J83" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K83" s="25">
+        <v>9682</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
@@ -4232,11 +4336,11 @@
       <c r="I84" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J84" s="21">
         <v>147.91734366796078</v>
       </c>
-      <c r="K84" s="19">
-        <v>0</v>
+      <c r="K84" s="30">
+        <v>1.39</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
@@ -4246,9 +4350,9 @@
       <c r="B85" s="2">
         <v>1.153</v>
       </c>
-      <c r="C85" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C85" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D85" s="1">
         <v>1.0000000000000001E-5</v>
@@ -4268,24 +4372,32 @@
       <c r="I85" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J85" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K85" s="19">
-        <v>0</v>
+      <c r="J85" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K85" s="26">
+        <v>126000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="12"/>
+      <c r="B86" s="8">
+        <v>6.9459999999999997</v>
+      </c>
+      <c r="C86" s="20">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
+      </c>
       <c r="D86" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E86" s="2"/>
+      <c r="E86" s="8">
+        <f>E104</f>
+        <v>220.66300000000001</v>
+      </c>
       <c r="F86" s="1">
         <v>2E-3</v>
       </c>
@@ -4298,9 +4410,12 @@
       <c r="I86" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J86" s="12"/>
-      <c r="K86" s="19">
-        <v>0</v>
+      <c r="J86" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K86" s="27">
+        <v>3380</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -4310,9 +4425,9 @@
       <c r="B87" s="2">
         <v>6.9459999999999997</v>
       </c>
-      <c r="C87" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C87" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D87" s="1">
         <v>1.0000000000000001E-5</v>
@@ -4332,12 +4447,12 @@
       <c r="I87" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J87" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K87" s="19">
-        <v>0</v>
+      <c r="J87" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K87" s="27">
+        <v>3380</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -4347,9 +4462,9 @@
       <c r="B88" s="2">
         <v>0.42030000000000001</v>
       </c>
-      <c r="C88" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C88" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D88" s="1">
         <v>1.0000000000000001E-5</v>
@@ -4369,12 +4484,12 @@
       <c r="I88" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J88" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K88" s="19">
-        <v>0</v>
+      <c r="J88" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K88" s="25">
+        <v>3794</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -4384,9 +4499,9 @@
       <c r="B89" s="2">
         <v>7</v>
       </c>
-      <c r="C89" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C89" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D89" s="1">
         <v>1.0000000000000001E-5</v>
@@ -4406,12 +4521,12 @@
       <c r="I89" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J89" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K89" s="19">
-        <v>0</v>
+      <c r="J89" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K89" s="27">
+        <v>3380</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
@@ -4421,9 +4536,9 @@
       <c r="B90" s="2">
         <v>0.01</v>
       </c>
-      <c r="C90" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C90" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D90" s="1">
         <v>1.0000000000000001E-5</v>
@@ -4443,12 +4558,12 @@
       <c r="I90" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J90" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K90" s="19">
-        <v>0</v>
+      <c r="J90" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K90" s="26">
+        <v>108000</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
@@ -4479,11 +4594,11 @@
       <c r="I91" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J91" s="12">
+      <c r="J91" s="21">
         <v>0.45778646386462368</v>
       </c>
-      <c r="K91" s="19">
-        <v>0</v>
+      <c r="K91" s="29">
+        <v>245679.23</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
@@ -4514,11 +4629,11 @@
       <c r="I92" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J92" s="12">
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K92" s="19">
-        <v>0</v>
+      <c r="J92" s="21">
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K92" s="26">
+        <v>52400</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -4549,23 +4664,31 @@
       <c r="I93" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J93" s="12">
+      <c r="J93" s="21">
         <v>13.973800627175265</v>
       </c>
-      <c r="K93" s="19">
-        <v>0</v>
+      <c r="K93" s="25">
+        <v>635.29999999999995</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="12"/>
+      <c r="B94" s="8">
+        <v>6.9459999999999997</v>
+      </c>
+      <c r="C94" s="20">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
+      </c>
       <c r="D94" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="8">
+        <f>E104</f>
+        <v>220.66300000000001</v>
+      </c>
       <c r="F94" s="1">
         <v>2E-3</v>
       </c>
@@ -4578,21 +4701,32 @@
       <c r="I94" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J94" s="12"/>
-      <c r="K94" s="19">
-        <v>0</v>
+      <c r="J94" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K94" s="29">
+        <v>14.3</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="12"/>
+      <c r="B95" s="8">
+        <v>6.9459999999999997</v>
+      </c>
+      <c r="C95" s="20">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
+      </c>
       <c r="D95" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="E95" s="8">
+        <f>E104</f>
+        <v>220.66300000000001</v>
+      </c>
       <c r="F95" s="1">
         <v>2E-3</v>
       </c>
@@ -4605,9 +4739,12 @@
       <c r="I95" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J95" s="12"/>
-      <c r="K95" s="19">
-        <v>0</v>
+      <c r="J95" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K95" s="27">
+        <v>3380</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -4617,9 +4754,9 @@
       <c r="B96" s="2">
         <v>92.03</v>
       </c>
-      <c r="C96" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C96" s="12">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
       </c>
       <c r="D96" s="1">
         <v>1.0000000000000001E-5</v>
@@ -4639,12 +4776,12 @@
       <c r="I96" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J96" s="12">
-        <f>J100</f>
-        <v>0</v>
-      </c>
-      <c r="K96" s="19">
-        <v>0</v>
+      <c r="J96" s="21">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K96" s="25">
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -4675,66 +4812,167 @@
       <c r="I97" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J97" s="12">
+      <c r="J97" s="21">
         <v>4.0029661447396148</v>
       </c>
-      <c r="K97" s="19">
-        <v>0</v>
+      <c r="K97" s="25">
+        <v>291.60000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="19">
-        <v>0</v>
+      <c r="B98" s="8">
+        <v>6.9459999999999997</v>
+      </c>
+      <c r="C98" s="19">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E98" s="19">
+        <f>E104</f>
+        <v>220.66300000000001</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I98" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="J98" s="24">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K98" s="25">
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="19">
-        <v>0</v>
+      <c r="B99" s="8">
+        <v>6.9459999999999997</v>
+      </c>
+      <c r="C99" s="19">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E99" s="19">
+        <f>E104</f>
+        <v>220.66300000000001</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I99" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="J99" s="24">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K99" s="26">
+        <v>598000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="19">
-        <v>0</v>
+      <c r="B100" s="8">
+        <v>6.9459999999999997</v>
+      </c>
+      <c r="C100" s="19">
+        <f>C104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E100" s="19">
+        <f>E104</f>
+        <v>220.66300000000001</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I100" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="J100" s="24">
+        <f>J104</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K100" s="27">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103">
+        <f>AVERAGE(C2:C2:C5,C7:C14,C19:C24,C26:C37,C41,C43,C45,C50:C52,C54:C59,C63:C64,C66,C69,C78:C79,C81,C84,C91:C93,C97)</f>
+        <v>90.725050521818375</v>
+      </c>
+      <c r="K103">
+        <f>AVERAGE(K2:K100)</f>
+        <v>92145.623535353545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104">
+        <f>MEDIAN(B2:B100)</f>
+        <v>6.9459999999999997</v>
+      </c>
+      <c r="C104">
+        <f>MEDIAN(C2:C2:C5,C7:C14,C19:C24,C26:C37,C41,C43,C45,C50:C52,C54:C59,C63:C64,C66,C69,C78:C79,C81,C84,C91:C93,C97)</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="E104">
+        <f>MEDIAN(E2:E2:E5,E7:E14,E19:E24,E26:E37,E41,E43,E45,E50:E52,E54:E59,E63:E64,E66,E69,E78:E79,E81,E84,E91:E93,E97)</f>
+        <v>220.66300000000001</v>
+      </c>
+      <c r="J104">
+        <f>MEDIAN(J2:J2:J5,J7:J14,J19:J24,J26:J37,J41,J43,J45,J50:J52,J54:J59,J63:J64,J66,J69,J78:J79,J81,J84,J91:J93,J97)</f>
+        <v>0.91804827430790825</v>
+      </c>
+      <c r="K104">
+        <f>MEDIAN(K2:K100)</f>
+        <v>3380</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J100" xr:uid="{DC907DEE-C603-4A43-B1C9-FE43BB4B9094}"/>
+  <autoFilter ref="A1:K100" xr:uid="{DC907DEE-C603-4A43-B1C9-FE43BB4B9094}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4781,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -4805,15 +5043,15 @@
         <v>10</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -4833,7 +5071,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -4853,7 +5091,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -4873,7 +5111,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -4891,15 +5129,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -4919,7 +5157,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -4939,7 +5177,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4955,7 +5193,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -4975,7 +5213,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -4995,7 +5233,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -5015,7 +5253,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -5035,7 +5273,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5051,7 +5289,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5067,7 +5305,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5083,7 +5321,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5099,7 +5337,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -5119,7 +5357,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -5139,7 +5377,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5155,7 +5393,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5171,7 +5409,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5187,7 +5425,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
@@ -5207,7 +5445,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
@@ -5227,7 +5465,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
@@ -5247,7 +5485,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
@@ -5267,7 +5505,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5283,7 +5521,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
@@ -5303,7 +5541,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
@@ -5323,7 +5561,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
@@ -5343,7 +5581,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
@@ -5363,7 +5601,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
@@ -5403,7 +5641,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
@@ -5423,7 +5661,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
@@ -5443,7 +5681,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
@@ -5461,15 +5699,15 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
@@ -5487,15 +5725,15 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
@@ -5515,7 +5753,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
@@ -5535,7 +5773,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>12</v>
@@ -5575,7 +5813,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
@@ -5593,10 +5831,10 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -5619,7 +5857,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N42" t="s">
         <v>46</v>
@@ -5627,7 +5865,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>12</v>
@@ -5647,7 +5885,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>12</v>
@@ -5667,7 +5905,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>12</v>
@@ -5687,7 +5925,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>12</v>
@@ -5757,7 +5995,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N49" t="s">
         <v>54</v>
@@ -5765,7 +6003,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5819,7 +6057,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N52" t="s">
         <v>57</v>
@@ -5827,7 +6065,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>12</v>
@@ -5845,7 +6083,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N53" t="s">
         <v>58</v>
@@ -5853,7 +6091,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5887,7 +6125,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N55" t="s">
         <v>59</v>
@@ -5915,7 +6153,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>12</v>
@@ -5933,15 +6171,15 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>12</v>
@@ -5962,7 +6200,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -5976,7 +6214,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N59" t="s">
         <v>58</v>
@@ -5984,7 +6222,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -5998,15 +6236,15 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>12</v>
@@ -6026,7 +6264,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>12</v>
@@ -6046,7 +6284,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -6062,7 +6300,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>12</v>
@@ -6082,7 +6320,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>12</v>
@@ -6102,7 +6340,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>12</v>
@@ -6122,7 +6360,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>12</v>
@@ -6142,7 +6380,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6158,7 +6396,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>12</v>
@@ -6178,7 +6416,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>12</v>
@@ -6198,7 +6436,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>12</v>
@@ -6218,7 +6456,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>12</v>
@@ -6238,7 +6476,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
@@ -6258,7 +6496,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>12</v>
@@ -6278,7 +6516,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>12</v>
@@ -6289,7 +6527,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>76</v>
@@ -6300,7 +6538,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>76</v>
@@ -6311,7 +6549,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>76</v>
@@ -6322,7 +6560,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>76</v>
@@ -6344,7 +6582,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>76</v>
@@ -6355,7 +6593,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>76</v>
@@ -6366,7 +6604,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>76</v>
@@ -6377,7 +6615,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>76</v>
@@ -6388,7 +6626,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>76</v>
@@ -6399,7 +6637,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>76</v>
@@ -6410,7 +6648,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>76</v>
@@ -6421,7 +6659,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>76</v>
@@ -6432,7 +6670,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>76</v>
@@ -6443,7 +6681,7 @@
     </row>
     <row r="90" spans="1:3" ht="28" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>76</v>
@@ -6454,7 +6692,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>76</v>
@@ -6465,7 +6703,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>76</v>
@@ -6476,7 +6714,7 @@
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>76</v>
@@ -6487,7 +6725,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>76</v>
@@ -6498,7 +6736,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>76</v>
@@ -6509,7 +6747,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>76</v>
@@ -6520,7 +6758,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>76</v>
@@ -6531,7 +6769,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>76</v>
@@ -6542,7 +6780,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>76</v>
@@ -6564,7 +6802,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>76</v>
@@ -6575,7 +6813,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>76</v>
@@ -6586,7 +6824,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>76</v>
@@ -6608,7 +6846,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>76</v>
@@ -6619,7 +6857,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>76</v>
@@ -6630,7 +6868,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>76</v>
@@ -6641,7 +6879,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>76</v>
@@ -6652,7 +6890,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>76</v>
@@ -6663,7 +6901,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>76</v>
@@ -6674,7 +6912,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>76</v>
@@ -6685,7 +6923,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>76</v>
@@ -6980,7 +7218,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BB922F-3284-40C2-97E7-591ABBCC60B1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3467E1DC-FB61-4FE6-BFB4-5C6E1DBE2D11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/inputs compound generator/inputs/compound_features.xlsx
+++ b/inputs compound generator/inputs/compound_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\ICRA\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A838A52-A528-4879-A663-099561C332B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51057CF-81A6-4950-BAB2-F3216F5AEE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{E2AB2CE8-E54D-4969-B913-27EBF708D95D}"/>
   </bookViews>
@@ -735,9 +735,6 @@
     <t>aq_volat</t>
   </si>
   <si>
-    <t>aq_life</t>
-  </si>
-  <si>
     <t>mol_wt</t>
   </si>
   <si>
@@ -760,6 +757,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>aq_hlife</t>
   </si>
 </sst>
 </file>
@@ -1312,10 +1312,10 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1335,37 +1335,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>230</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -6961,6 +6961,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001A5AD457E8C9A440B1EE1EBBE67BEAE9" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="714df8915607d63f81c71e76cb068bfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdb32b0a-6df1-4593-bf63-7f71602d9d10" xmlns:ns3="057d7b64-f508-48ef-9a0e-79d33157fe45" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b557d1b9944ae23a8786c2716089cc86" ns2:_="" ns3:_="">
     <xsd:import namespace="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
@@ -7197,15 +7206,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5AD974-7C31-459C-BBF7-CA441A681369}">
   <ds:schemaRefs>
@@ -7218,6 +7218,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C61ADF3-5C42-4E1E-955C-0678CB4151CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3467E1DC-FB61-4FE6-BFB4-5C6E1DBE2D11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7234,12 +7242,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C61ADF3-5C42-4E1E-955C-0678CB4151CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inputs compound generator/inputs/compound_features.xlsx
+++ b/inputs compound generator/inputs/compound_features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\ICRA\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51057CF-81A6-4950-BAB2-F3216F5AEE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8261FEC-EC62-4C57-A4EA-FDAA90BC44E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{E2AB2CE8-E54D-4969-B913-27EBF708D95D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{E2AB2CE8-E54D-4969-B913-27EBF708D95D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="241">
   <si>
     <t>Nom</t>
   </si>
@@ -753,13 +753,16 @@
     <t>ben_hlife</t>
   </si>
   <si>
-    <t>soil_ads</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>aq_hlife</t>
+  </si>
+  <si>
+    <t>log(kow)</t>
+  </si>
+  <si>
+    <t>kow</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,13 +842,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,18 +864,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -916,19 +906,15 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -973,27 +959,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,16 +1280,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC907DEE-C603-4A43-B1C9-FE43BB4B9094}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="43.54296875" customWidth="1"/>
@@ -1333,15 +1304,15 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="81" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>230</v>
@@ -1365,10 +1336,13 @@
         <v>236</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1396,14 +1370,18 @@
       <c r="I2" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="12">
         <v>0.79993073790777081</v>
       </c>
-      <c r="K2" s="25">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K2" s="20">
+        <v>0.23</v>
+      </c>
+      <c r="L2">
+        <f>10^K2</f>
+        <v>1.6982436524617444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1409,18 @@
       <c r="I3" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="12">
         <v>0.64394577287617194</v>
       </c>
-      <c r="K3" s="25">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K3" s="20">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="0">10^K3</f>
+        <v>0.26915348039269155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1466,14 +1448,15 @@
       <c r="I4" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="12">
         <v>0.9760601435931624</v>
       </c>
-      <c r="K4" s="25">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1504,11 +1487,15 @@
       <c r="J5" s="16">
         <v>0.65428798621803219</v>
       </c>
-      <c r="K5" s="25">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>0.68</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>4.786300923226384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1537,15 +1524,19 @@
       <c r="I6" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J6" s="22">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K6" s="25">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J6" s="13">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1.7378008287493756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1573,14 +1564,18 @@
       <c r="I7" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="13">
         <v>1.2680030616009312</v>
       </c>
-      <c r="K7" s="25">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K7" s="21">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.85113803820237643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1608,14 +1603,18 @@
       <c r="I8" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="13">
         <v>0.95036260055407962</v>
       </c>
-      <c r="K8" s="25">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K8" s="21">
+        <v>0.62</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>4.1686938347033546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1643,14 +1642,18 @@
       <c r="I9" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="13">
         <v>0.86651755297128708</v>
       </c>
-      <c r="K9" s="25">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K9" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>5.3703179637025285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1678,14 +1681,18 @@
       <c r="I10" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="13">
         <v>1.7454131791696705</v>
       </c>
-      <c r="K10" s="25">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K10" s="21">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.26915348039269155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1713,14 +1720,18 @@
       <c r="I11" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="13">
         <v>2.525707431112262</v>
       </c>
-      <c r="K11" s="26">
-        <v>20400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K11" s="20">
+        <v>3.17</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1479.1083881682086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1748,14 +1759,18 @@
       <c r="I12" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="13">
         <v>3.3750885117993459</v>
       </c>
-      <c r="K12" s="26">
-        <v>70900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K12" s="21">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>22387.211385683382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1783,14 +1798,18 @@
       <c r="I13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="13">
         <v>0.82129355643861934</v>
       </c>
-      <c r="K13" s="26">
-        <v>803000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K13" s="21">
+        <v>4.93</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>85113.803820237721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1818,14 +1837,18 @@
       <c r="I14" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="13">
         <v>3.2343478684443667</v>
       </c>
-      <c r="K14" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K14" s="21">
+        <v>6.11</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1288249.5516931366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1854,15 +1877,19 @@
       <c r="I15" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J15" s="22">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K15" s="26">
-        <v>254000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J15" s="13">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="21">
+        <v>6.11</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1288249.5516931366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1891,15 +1918,19 @@
       <c r="I16" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J16" s="22">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K16" s="26">
-        <v>598000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J16" s="13">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
+        <v>5.99</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>977237.22095581202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1928,15 +1959,19 @@
       <c r="I17" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J17" s="22">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K17" s="26">
-        <v>2680000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J17" s="13">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="21">
+        <v>6.76</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>5754399.373371576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1965,15 +2000,19 @@
       <c r="I18" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J18" s="22">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K18" s="26">
-        <v>33700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J18" s="13">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="21">
+        <v>6.7</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>5011872.3362727314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -2001,14 +2040,18 @@
       <c r="I19" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="13">
         <v>0.5369137674898542</v>
       </c>
-      <c r="K19" s="26">
-        <v>62200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K19" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>316227.7660168382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -2036,14 +2079,18 @@
       <c r="I20" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="13">
         <v>1.5369607024697367</v>
       </c>
-      <c r="K20" s="26">
-        <v>60900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K20" s="21">
+        <v>5.99</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>977237.22095581202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -2071,14 +2118,18 @@
       <c r="I21" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="13">
         <v>0.38253954168149329</v>
       </c>
-      <c r="K21" s="26">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K21" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>1.9054607179632475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -2106,14 +2157,18 @@
       <c r="I22" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="13">
         <v>1.6480794317046572</v>
       </c>
-      <c r="K22" s="26">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K22" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>3.0199517204020165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -2141,14 +2196,18 @@
       <c r="I23" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="13">
         <v>1.4874032506832924</v>
       </c>
-      <c r="K23" s="26">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K23" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>5.3703179637025285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -2176,14 +2235,18 @@
       <c r="I24" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="13">
         <v>2.1100109564821601</v>
       </c>
-      <c r="K24" s="26">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K24" s="21">
+        <v>3.28</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>1905.4607179632485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -2212,15 +2275,19 @@
       <c r="I25" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J25" s="22">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K25" s="26">
-        <v>3330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J25" s="13">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="21">
+        <v>2.72</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>524.80746024977293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -2248,14 +2315,18 @@
       <c r="I26" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="13">
         <v>0.91804827430790825</v>
       </c>
-      <c r="K26" s="26">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K26" s="21">
+        <v>2.82</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>660.69344800759643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -2283,14 +2354,18 @@
       <c r="I27" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="13">
         <v>0.66025202211369305</v>
       </c>
-      <c r="K27" s="26">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K27" s="21">
+        <v>3.37</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>2344.2288153199238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -2318,14 +2393,18 @@
       <c r="I28" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="13">
         <v>1.1248990138078943</v>
       </c>
-      <c r="K28" s="26">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K28" s="21">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>14125.375446227561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -2353,14 +2432,18 @@
       <c r="I29" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="13">
         <v>0.40421496148163438</v>
       </c>
-      <c r="K29" s="26">
-        <v>6830</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K29" s="21">
+        <v>4.66</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>45708.818961487581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -2388,14 +2471,18 @@
       <c r="I30" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="13">
         <v>0.17718382013555792</v>
       </c>
-      <c r="K30" s="26">
-        <v>40.200000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K30" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>3.9810717055349727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -2423,14 +2510,18 @@
       <c r="I31" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="13">
         <v>0.66025202211369305</v>
       </c>
-      <c r="K31" s="26">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K31" s="21">
+        <v>2.84</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>691.83097091893671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -2458,14 +2549,18 @@
       <c r="I32" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="13">
         <v>0.17718382013555792</v>
       </c>
-      <c r="K32" s="26">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K32" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>251.18864315095806</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2493,14 +2588,18 @@
       <c r="I33" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="13">
         <v>37.221421707399358</v>
       </c>
-      <c r="K33" s="25">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K33" s="21">
+        <v>2.67</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>467.7351412871983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
         <v>47</v>
       </c>
@@ -2528,14 +2627,18 @@
       <c r="I34" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="12">
         <v>1.0779254332816763</v>
       </c>
-      <c r="K34" s="25">
-        <v>35.04</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K34" s="21">
+        <v>1.52</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>33.113112148259127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -2563,14 +2666,18 @@
       <c r="I35" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="12">
         <v>4637.1845926636579</v>
       </c>
-      <c r="K35" s="26">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K35" s="21">
+        <v>3.27</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>1862.0871366628687</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
@@ -2598,14 +2705,18 @@
       <c r="I36" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="12">
         <v>0.43604164240718041</v>
       </c>
-      <c r="K36" s="26">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K36" s="21">
+        <v>4.72</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>52480.746024977314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -2633,14 +2744,18 @@
       <c r="I37" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="12">
         <v>1.0537582073575544</v>
       </c>
-      <c r="K37" s="26">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K37" s="21">
+        <v>4.99</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>97723.722095581266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
@@ -2669,15 +2784,19 @@
       <c r="I38" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J38" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K38" s="26">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J38" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="21">
+        <v>5.86</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>724435.96007499192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
@@ -2706,15 +2825,19 @@
       <c r="I39" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J39" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K39" s="26">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J39" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="21">
+        <v>4.26</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>18197.008586099837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
@@ -2743,15 +2866,19 @@
       <c r="I40" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J40" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K40" s="26">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J40" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="21">
+        <v>4.26</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>18197.008586099837</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
         <v>54</v>
       </c>
@@ -2779,14 +2906,18 @@
       <c r="I41" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="12">
         <v>2.1279798681506534</v>
       </c>
-      <c r="K41" s="26">
-        <v>106000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K41" s="21">
+        <v>6.75</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>5623413.2519034976</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
@@ -2815,15 +2946,19 @@
       <c r="I42" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J42" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K42" s="26">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J42" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="21">
+        <v>4.26</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>18197.008586099837</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
         <v>56</v>
       </c>
@@ -2851,14 +2986,18 @@
       <c r="I43" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="12">
         <v>2.1298111477804422</v>
       </c>
-      <c r="K43" s="26">
-        <v>106000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K43" s="21">
+        <v>1.74</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>54.95408738576247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
         <v>57</v>
       </c>
@@ -2887,15 +3026,19 @@
       <c r="I44" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J44" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K44" s="26">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J44" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="21">
+        <v>5.81</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>645654.22903465526</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -2923,14 +3066,18 @@
       <c r="I45" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="12">
         <v>4.3764067335048225</v>
       </c>
-      <c r="K45" s="26">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K45" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>3162.2776601683804</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -2959,15 +3106,19 @@
       <c r="I46" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J46" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K46" s="26">
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J46" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="21">
+        <v>5.45</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>281838.29312644573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -2996,15 +3147,19 @@
       <c r="I47" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J47" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K47" s="28">
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J47" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>158489.31924611164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
@@ -3033,15 +3188,19 @@
       <c r="I48" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J48" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K48" s="26">
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J48" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="21">
+        <v>6.79</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>6165950.0186148267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
@@ -3070,15 +3229,19 @@
       <c r="I49" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J49" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K49" s="26">
-        <v>153000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J49" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="21">
+        <v>5.87</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>741310.24130091805</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
         <v>63</v>
       </c>
@@ -3106,14 +3269,18 @@
       <c r="I50" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="14">
         <v>1.9380977747440384</v>
       </c>
-      <c r="K50" s="26">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K50" s="21">
+        <v>6.79</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>6165950.0186148267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
@@ -3141,14 +3308,18 @@
       <c r="I51" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="14">
         <v>0.18992109393150994</v>
       </c>
-      <c r="K51" s="26">
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K51" s="21">
+        <v>2.68</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>478.63009232263886</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -3176,14 +3347,18 @@
       <c r="I52" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="14">
         <v>0.17253697012541502</v>
       </c>
-      <c r="K52" s="26">
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K52" s="20">
+        <v>2.44</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>275.42287033381683</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
@@ -3212,15 +3387,19 @@
       <c r="I53" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J53" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K53" s="26">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J53" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="21">
+        <v>2.13</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>134.89628825916537</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
@@ -3248,14 +3427,18 @@
       <c r="I54" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="14">
         <v>0.5757166424934449</v>
       </c>
-      <c r="K54" s="26">
-        <v>43.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K54" s="21">
+        <v>1.83</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>67.60829753919819</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
         <v>68</v>
       </c>
@@ -3283,14 +3466,18 @@
       <c r="I55" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="14">
         <v>0.36087697620281139</v>
       </c>
-      <c r="K55" s="26">
-        <v>67.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K55" s="21">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>295.12092266663893</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
         <v>69</v>
       </c>
@@ -3318,14 +3505,18 @@
       <c r="I56" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="14">
         <v>0.57891156735035998</v>
       </c>
-      <c r="K56" s="26">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K56" s="21">
+        <v>2.54</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>346.73685045253183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
         <v>70</v>
       </c>
@@ -3353,14 +3544,18 @@
       <c r="I57" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="14">
         <v>0.75605812964993069</v>
       </c>
-      <c r="K57" s="26">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K57" s="21">
+        <v>3.03</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>1071.5193052376069</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
         <v>71</v>
       </c>
@@ -3388,14 +3583,16 @@
       <c r="I58" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="14">
         <v>0.82129355643861934</v>
       </c>
-      <c r="K58" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K58" s="21"/>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
         <v>72</v>
       </c>
@@ -3423,14 +3620,16 @@
       <c r="I59" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="14">
         <v>0.82129355643861934</v>
       </c>
-      <c r="K59" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K59" s="21"/>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
         <v>73</v>
       </c>
@@ -3459,32 +3658,28 @@
       <c r="I60" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J60" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K60" s="26">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J60" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="21">
+        <v>3.93</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>8511.3803820237772</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="8">
-        <v>6.9459999999999997</v>
-      </c>
-      <c r="C61">
-        <f>C104</f>
-        <v>0.91804827430790825</v>
-      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E61" s="8">
-        <f>E104</f>
-        <v>220.66300000000001</v>
-      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="1">
         <v>2E-3</v>
       </c>
@@ -3497,15 +3692,13 @@
       <c r="I61" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J61" s="31">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K61" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J61" s="14"/>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="8" t="s">
         <v>75</v>
       </c>
@@ -3534,15 +3727,16 @@
       <c r="I62" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J62" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K62" s="29">
-        <v>30809.77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J62" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="8" t="s">
         <v>77</v>
       </c>
@@ -3570,14 +3764,18 @@
       <c r="I63" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J63" s="23">
+      <c r="J63" s="14">
         <v>0.54451364536386027</v>
       </c>
-      <c r="K63" s="25">
-        <v>865.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K63" s="21">
+        <v>0.97</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>9.3325430079699103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="8" t="s">
         <v>78</v>
       </c>
@@ -3605,14 +3803,18 @@
       <c r="I64" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J64" s="23">
+      <c r="J64" s="14">
         <v>2.4452785614560479</v>
       </c>
-      <c r="K64" s="26">
-        <v>1640000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K64" s="21">
+        <v>6.26</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>1819700.8586099846</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="8" t="s">
         <v>79</v>
       </c>
@@ -3641,15 +3843,19 @@
       <c r="I65" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J65" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K65" s="26">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J65" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>1.778279410038923</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="8" t="s">
         <v>80</v>
       </c>
@@ -3677,14 +3883,18 @@
       <c r="I66" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J66" s="23">
+      <c r="J66" s="14">
         <v>3.5706553951741165</v>
       </c>
-      <c r="K66" s="25">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K66" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>12589.254117941671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="8" t="s">
         <v>81</v>
       </c>
@@ -3713,15 +3923,19 @@
       <c r="I67" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J67" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K67" s="26">
-        <v>88300</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J67" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="21">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L100" si="1">10^K67</f>
+        <v>44668.359215096389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="8" t="s">
         <v>82</v>
       </c>
@@ -3750,15 +3964,19 @@
       <c r="I68" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J68" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K68" s="26">
-        <v>43400</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J68" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="21">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>15488.166189124853</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="8" t="s">
         <v>83</v>
       </c>
@@ -3786,14 +4004,18 @@
       <c r="I69" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J69" s="23">
+      <c r="J69" s="14">
         <v>2.2936627416224891</v>
       </c>
-      <c r="K69" s="26">
-        <v>61400</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K69" s="21">
+        <v>6.25</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>1778279.4100389241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="8" t="s">
         <v>84</v>
       </c>
@@ -3822,15 +4044,19 @@
       <c r="I70" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J70" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K70" s="26">
-        <v>178000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J70" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="21">
+        <v>4.67</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>46773.514128719893</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="8" t="s">
         <v>85</v>
       </c>
@@ -3859,15 +4085,19 @@
       <c r="I71" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J71" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K71" s="26">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J71" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>4.13</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>13489.628825916556</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="8" t="s">
         <v>86</v>
       </c>
@@ -3896,15 +4126,19 @@
       <c r="I72" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J72" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K72" s="26">
-        <v>20700</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J72" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="21">
+        <v>3.89</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>7762.4711662869322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="8" t="s">
         <v>87</v>
       </c>
@@ -3933,15 +4167,19 @@
       <c r="I73" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J73" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K73" s="26">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J73" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="21">
+        <v>4.25</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>17782.794100389234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="8" t="s">
         <v>88</v>
       </c>
@@ -3970,15 +4208,19 @@
       <c r="I74" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J74" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K74" s="26">
-        <v>156000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J74" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="21">
+        <v>5.36</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>229086.76527677779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="8" t="s">
         <v>89</v>
       </c>
@@ -4007,32 +4249,28 @@
       <c r="I75" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J75" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K75" s="26">
-        <v>37700</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J75" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>77624.711662869129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="8">
-        <v>6.9459999999999997</v>
-      </c>
-      <c r="C76">
-        <f>C104</f>
-        <v>0.91804827430790825</v>
-      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E76" s="8">
-        <f>E104</f>
-        <v>220.66300000000001</v>
-      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="1">
         <v>2E-3</v>
       </c>
@@ -4045,32 +4283,22 @@
       <c r="I76" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J76" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K76" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J76" s="14"/>
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="8">
-        <v>6.9459999999999997</v>
-      </c>
-      <c r="C77">
-        <f>C104</f>
-        <v>0.91804827430790825</v>
-      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E77" s="8">
-        <f>E104</f>
-        <v>220.66300000000001</v>
-      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="1">
         <v>2E-3</v>
       </c>
@@ -4083,15 +4311,13 @@
       <c r="I77" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J77" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K77" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J77" s="14"/>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="8" t="s">
         <v>92</v>
       </c>
@@ -4119,14 +4345,18 @@
       <c r="I78" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J78" s="23">
+      <c r="J78" s="14">
         <v>0.66025202211369305</v>
       </c>
-      <c r="K78" s="26">
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K78" s="21">
+        <v>1.34</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>21.877616239495538</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="8" t="s">
         <v>93</v>
       </c>
@@ -4154,14 +4384,15 @@
       <c r="I79" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J79" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="K79" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J79" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="18" t="s">
         <v>94</v>
       </c>
@@ -4190,15 +4421,19 @@
       <c r="I80" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J80" s="23">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K80" s="25">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J80" s="14">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="21">
+        <v>4.74</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>54954.087385762505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="8" t="s">
         <v>95</v>
       </c>
@@ -4226,31 +4461,27 @@
       <c r="I81" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J81" s="23">
+      <c r="J81" s="14">
         <v>0.36087697620281139</v>
       </c>
-      <c r="K81" s="25">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K81" s="21">
+        <v>2.97</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>933.25430079699197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="8">
-        <v>6.9459999999999997</v>
-      </c>
-      <c r="C82" s="20">
-        <f>C104</f>
-        <v>0.91804827430790825</v>
-      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="12"/>
       <c r="D82" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E82" s="8">
-        <f>E104</f>
-        <v>220.66300000000001</v>
-      </c>
+      <c r="E82" s="2"/>
       <c r="F82" s="1">
         <v>2E-3</v>
       </c>
@@ -4263,15 +4494,13 @@
       <c r="I82" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J82" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K82" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J82" s="12"/>
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="8" t="s">
         <v>97</v>
       </c>
@@ -4300,15 +4529,19 @@
       <c r="I83" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J83" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K83" s="25">
-        <v>9682</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J83" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="21">
+        <v>5.31</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>204173.79446695308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="8" t="s">
         <v>98</v>
       </c>
@@ -4336,14 +4569,15 @@
       <c r="I84" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J84" s="21">
+      <c r="J84" s="12">
         <v>147.91734366796078</v>
       </c>
-      <c r="K84" s="30">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="8" t="s">
         <v>99</v>
       </c>
@@ -4372,32 +4606,28 @@
       <c r="I85" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J85" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K85" s="26">
-        <v>126000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J85" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="21">
+        <v>5.69</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>489778.81936844741</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="8">
-        <v>6.9459999999999997</v>
-      </c>
-      <c r="C86" s="20">
-        <f>C104</f>
-        <v>0.91804827430790825</v>
-      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="12"/>
       <c r="D86" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E86" s="8">
-        <f>E104</f>
-        <v>220.66300000000001</v>
-      </c>
+      <c r="E86" s="2"/>
       <c r="F86" s="1">
         <v>2E-3</v>
       </c>
@@ -4410,15 +4640,13 @@
       <c r="I86" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J86" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K86" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J86" s="12"/>
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="8" t="s">
         <v>101</v>
       </c>
@@ -4447,15 +4675,16 @@
       <c r="I87" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J87" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K87" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J87" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="8" t="s">
         <v>102</v>
       </c>
@@ -4484,15 +4713,19 @@
       <c r="I88" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J88" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K88" s="25">
-        <v>3794</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J88" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="20">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>14125.375446227561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="8" t="s">
         <v>103</v>
       </c>
@@ -4521,15 +4754,16 @@
       <c r="I89" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J89" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K89" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J89" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="8" t="s">
         <v>104</v>
       </c>
@@ -4558,15 +4792,19 @@
       <c r="I90" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J90" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K90" s="26">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J90" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="21">
+        <v>6.38</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>2398832.9190194933</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="8" t="s">
         <v>105</v>
       </c>
@@ -4594,14 +4832,18 @@
       <c r="I91" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J91" s="21">
+      <c r="J91" s="12">
         <v>0.45778646386462368</v>
       </c>
-      <c r="K91" s="29">
-        <v>245679.23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K91" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>398107.17055349716</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="8" t="s">
         <v>106</v>
       </c>
@@ -4629,14 +4871,18 @@
       <c r="I92" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J92" s="21">
+      <c r="J92" s="12">
         <v>0.91804827430790825</v>
       </c>
-      <c r="K92" s="26">
-        <v>52400</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K92" s="21">
+        <v>5.86</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>724435.96007499192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="8" t="s">
         <v>107</v>
       </c>
@@ -4664,31 +4910,27 @@
       <c r="I93" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J93" s="21">
+      <c r="J93" s="12">
         <v>13.973800627175265</v>
       </c>
-      <c r="K93" s="25">
-        <v>635.29999999999995</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K93" s="21">
+        <v>3.77</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>5888.4365535558973</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="8">
-        <v>6.9459999999999997</v>
-      </c>
-      <c r="C94" s="20">
-        <f>C104</f>
-        <v>0.91804827430790825</v>
-      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="12"/>
       <c r="D94" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E94" s="8">
-        <f>E104</f>
-        <v>220.66300000000001</v>
-      </c>
+      <c r="E94" s="2"/>
       <c r="F94" s="1">
         <v>2E-3</v>
       </c>
@@ -4701,32 +4943,22 @@
       <c r="I94" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J94" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K94" s="29">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J94" s="12"/>
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="8">
-        <v>6.9459999999999997</v>
-      </c>
-      <c r="C95" s="20">
-        <f>C104</f>
-        <v>0.91804827430790825</v>
-      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E95" s="8">
-        <f>E104</f>
-        <v>220.66300000000001</v>
-      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="1">
         <v>2E-3</v>
       </c>
@@ -4739,15 +4971,13 @@
       <c r="I95" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J95" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K95" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J95" s="12"/>
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="8" t="s">
         <v>110</v>
       </c>
@@ -4776,15 +5006,19 @@
       <c r="I96" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J96" s="21">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K96" s="25">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J96" s="12">
+        <f>J100</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="21">
+        <v>3.28</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="1"/>
+        <v>1905.4607179632485</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="8" t="s">
         <v>111</v>
       </c>
@@ -4812,31 +5046,27 @@
       <c r="I97" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J97" s="21">
+      <c r="J97" s="12">
         <v>4.0029661447396148</v>
       </c>
-      <c r="K97" s="25">
-        <v>291.60000000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K97" s="21">
+        <v>3.24</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="1"/>
+        <v>1737.8008287493772</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="8">
-        <v>6.9459999999999997</v>
-      </c>
-      <c r="C98" s="19">
-        <f>C104</f>
-        <v>0.91804827430790825</v>
-      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
       <c r="D98" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E98" s="19">
-        <f>E104</f>
-        <v>220.66300000000001</v>
-      </c>
+      <c r="E98" s="19"/>
       <c r="F98" s="1">
         <v>2E-3</v>
       </c>
@@ -4849,32 +5079,25 @@
       <c r="I98" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J98" s="24">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K98" s="25">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J98" s="1"/>
+      <c r="K98">
+        <v>2.64</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="1"/>
+        <v>436.51583224016622</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="8">
-        <v>6.9459999999999997</v>
-      </c>
-      <c r="C99" s="19">
-        <f>C104</f>
-        <v>0.91804827430790825</v>
-      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
       <c r="D99" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E99" s="19">
-        <f>E104</f>
-        <v>220.66300000000001</v>
-      </c>
+      <c r="E99" s="19"/>
       <c r="F99" s="1">
         <v>2E-3</v>
       </c>
@@ -4887,32 +5110,22 @@
       <c r="I99" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J99" s="24">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K99" s="26">
-        <v>598000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J99" s="1"/>
+      <c r="L99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="8">
-        <v>6.9459999999999997</v>
-      </c>
-      <c r="C100" s="19">
-        <f>C104</f>
-        <v>0.91804827430790825</v>
-      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
       <c r="D100" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E100" s="19">
-        <f>E104</f>
-        <v>220.66300000000001</v>
-      </c>
+      <c r="E100" s="19"/>
       <c r="F100" s="1">
         <v>2E-3</v>
       </c>
@@ -4925,15 +5138,13 @@
       <c r="I100" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J100" s="24">
-        <f>J104</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K100" s="27">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J100" s="1"/>
+      <c r="L100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="17" t="s">
         <v>115</v>
       </c>
@@ -4941,34 +5152,14 @@
         <f>AVERAGE(C2:C2:C5,C7:C14,C19:C24,C26:C37,C41,C43,C45,C50:C52,C54:C59,C63:C64,C66,C69,C78:C79,C81,C84,C91:C93,C97)</f>
         <v>90.725050521818375</v>
       </c>
-      <c r="K103">
-        <f>AVERAGE(K2:K100)</f>
-        <v>92145.623535353545</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="B104">
-        <f>MEDIAN(B2:B100)</f>
-        <v>6.9459999999999997</v>
       </c>
       <c r="C104">
         <f>MEDIAN(C2:C2:C5,C7:C14,C19:C24,C26:C37,C41,C43,C45,C50:C52,C54:C59,C63:C64,C66,C69,C78:C79,C81,C84,C91:C93,C97)</f>
         <v>0.91804827430790825</v>
-      </c>
-      <c r="E104">
-        <f>MEDIAN(E2:E2:E5,E7:E14,E19:E24,E26:E37,E41,E43,E45,E50:E52,E54:E59,E63:E64,E66,E69,E78:E79,E81,E84,E91:E93,E97)</f>
-        <v>220.66300000000001</v>
-      </c>
-      <c r="J104">
-        <f>MEDIAN(J2:J2:J5,J7:J14,J19:J24,J26:J37,J41,J43,J45,J50:J52,J54:J59,J63:J64,J66,J69,J78:J79,J81,J84,J91:J93,J97)</f>
-        <v>0.91804827430790825</v>
-      </c>
-      <c r="K104">
-        <f>MEDIAN(K2:K100)</f>
-        <v>3380</v>
       </c>
     </row>
   </sheetData>
@@ -4990,7 +5181,7 @@
       <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="3" width="29.453125" customWidth="1"/>
     <col min="4" max="4" width="39.26953125" customWidth="1"/>
@@ -5005,7 +5196,7 @@
     <col min="14" max="14" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="174" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5049,7 +5240,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>120</v>
       </c>
@@ -5069,7 +5260,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>121</v>
       </c>
@@ -5089,7 +5280,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>122</v>
       </c>
@@ -5109,7 +5300,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>123</v>
       </c>
@@ -5135,7 +5326,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>126</v>
       </c>
@@ -5155,7 +5346,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>127</v>
       </c>
@@ -5175,7 +5366,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>128</v>
       </c>
@@ -5191,7 +5382,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>129</v>
       </c>
@@ -5211,7 +5402,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>130</v>
       </c>
@@ -5231,7 +5422,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>131</v>
       </c>
@@ -5251,7 +5442,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>132</v>
       </c>
@@ -5271,7 +5462,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>133</v>
       </c>
@@ -5287,7 +5478,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
         <v>134</v>
       </c>
@@ -5303,7 +5494,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>135</v>
       </c>
@@ -5319,7 +5510,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
         <v>136</v>
       </c>
@@ -5335,7 +5526,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
         <v>137</v>
       </c>
@@ -5355,7 +5546,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
         <v>138</v>
       </c>
@@ -5375,7 +5566,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>139</v>
       </c>
@@ -5391,7 +5582,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>140</v>
       </c>
@@ -5407,7 +5598,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>141</v>
       </c>
@@ -5423,7 +5614,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>142</v>
       </c>
@@ -5443,7 +5634,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>143</v>
       </c>
@@ -5463,7 +5654,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>144</v>
       </c>
@@ -5483,7 +5674,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>145</v>
       </c>
@@ -5503,7 +5694,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>146</v>
       </c>
@@ -5519,7 +5710,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
         <v>147</v>
       </c>
@@ -5539,7 +5730,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
@@ -5559,7 +5750,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
         <v>149</v>
       </c>
@@ -5579,7 +5770,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>150</v>
       </c>
@@ -5599,7 +5790,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>151</v>
       </c>
@@ -5619,7 +5810,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -5639,7 +5830,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14">
       <c r="A33" s="2" t="s">
         <v>152</v>
       </c>
@@ -5659,7 +5850,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14">
       <c r="A34" s="2" t="s">
         <v>153</v>
       </c>
@@ -5679,7 +5870,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14">
       <c r="A35" s="2" t="s">
         <v>154</v>
       </c>
@@ -5705,7 +5896,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14">
       <c r="A36" s="2" t="s">
         <v>156</v>
       </c>
@@ -5731,7 +5922,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14">
       <c r="A37" s="2" t="s">
         <v>157</v>
       </c>
@@ -5751,7 +5942,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14">
       <c r="A38" s="2" t="s">
         <v>158</v>
       </c>
@@ -5771,7 +5962,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14">
       <c r="A39" s="2" t="s">
         <v>159</v>
       </c>
@@ -5791,7 +5982,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -5811,7 +6002,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14">
       <c r="A41" s="2" t="s">
         <v>160</v>
       </c>
@@ -5837,7 +6028,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -5863,7 +6054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14">
       <c r="A43" s="2" t="s">
         <v>163</v>
       </c>
@@ -5883,7 +6074,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14">
       <c r="A44" s="2" t="s">
         <v>164</v>
       </c>
@@ -5903,7 +6094,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14">
       <c r="A45" s="2" t="s">
         <v>165</v>
       </c>
@@ -5923,7 +6114,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14">
       <c r="A46" s="2" t="s">
         <v>166</v>
       </c>
@@ -5943,7 +6134,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
         <v>52</v>
       </c>
@@ -5959,7 +6150,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -5975,7 +6166,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14">
       <c r="A49" s="2" t="s">
         <v>54</v>
       </c>
@@ -6001,7 +6192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14">
       <c r="A50" s="2" t="s">
         <v>168</v>
       </c>
@@ -6017,7 +6208,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14">
       <c r="A51" s="2" t="s">
         <v>56</v>
       </c>
@@ -6037,7 +6228,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14">
       <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
@@ -6063,7 +6254,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14">
       <c r="A53" s="2" t="s">
         <v>170</v>
       </c>
@@ -6089,7 +6280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14">
       <c r="A54" s="2" t="s">
         <v>172</v>
       </c>
@@ -6105,7 +6296,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -6131,7 +6322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -6151,7 +6342,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14">
       <c r="A57" s="2" t="s">
         <v>174</v>
       </c>
@@ -6177,7 +6368,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14">
       <c r="A58" s="2" t="s">
         <v>177</v>
       </c>
@@ -6198,7 +6389,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14">
       <c r="A59" s="2" t="s">
         <v>178</v>
       </c>
@@ -6220,7 +6411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14">
       <c r="A60" s="2" t="s">
         <v>179</v>
       </c>
@@ -6242,7 +6433,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14">
       <c r="A61" s="2" t="s">
         <v>180</v>
       </c>
@@ -6262,7 +6453,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14">
       <c r="A62" s="2" t="s">
         <v>181</v>
       </c>
@@ -6282,7 +6473,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14">
       <c r="A63" s="2" t="s">
         <v>182</v>
       </c>
@@ -6298,7 +6489,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14">
       <c r="A64" s="2" t="s">
         <v>183</v>
       </c>
@@ -6318,7 +6509,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
         <v>184</v>
       </c>
@@ -6338,7 +6529,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
         <v>185</v>
       </c>
@@ -6358,7 +6549,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
@@ -6378,7 +6569,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
         <v>187</v>
       </c>
@@ -6394,7 +6585,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
         <v>188</v>
       </c>
@@ -6414,7 +6605,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
         <v>189</v>
       </c>
@@ -6434,7 +6625,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
         <v>190</v>
       </c>
@@ -6454,7 +6645,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
         <v>191</v>
       </c>
@@ -6474,7 +6665,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
         <v>192</v>
       </c>
@@ -6494,7 +6685,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
         <v>193</v>
       </c>
@@ -6514,7 +6705,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
         <v>194</v>
       </c>
@@ -6525,7 +6716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12">
       <c r="A76" s="8" t="s">
         <v>195</v>
       </c>
@@ -6536,7 +6727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12">
       <c r="A77" s="8" t="s">
         <v>196</v>
       </c>
@@ -6547,7 +6738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12">
       <c r="A78" s="8" t="s">
         <v>197</v>
       </c>
@@ -6558,7 +6749,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12">
       <c r="A79" s="8" t="s">
         <v>198</v>
       </c>
@@ -6569,7 +6760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12">
       <c r="A80" s="8" t="s">
         <v>80</v>
       </c>
@@ -6580,7 +6771,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" s="8" t="s">
         <v>199</v>
       </c>
@@ -6591,7 +6782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" s="8" t="s">
         <v>200</v>
       </c>
@@ -6602,7 +6793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" s="8" t="s">
         <v>201</v>
       </c>
@@ -6613,7 +6804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" s="8" t="s">
         <v>202</v>
       </c>
@@ -6624,7 +6815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" s="8" t="s">
         <v>203</v>
       </c>
@@ -6635,7 +6826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" s="8" t="s">
         <v>204</v>
       </c>
@@ -6646,7 +6837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" s="8" t="s">
         <v>205</v>
       </c>
@@ -6657,7 +6848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" s="8" t="s">
         <v>206</v>
       </c>
@@ -6668,7 +6859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" s="8" t="s">
         <v>207</v>
       </c>
@@ -6679,7 +6870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="28" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" ht="28">
       <c r="A90" s="9" t="s">
         <v>208</v>
       </c>
@@ -6690,7 +6881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" s="9" t="s">
         <v>209</v>
       </c>
@@ -6701,7 +6892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" s="9" t="s">
         <v>210</v>
       </c>
@@ -6712,7 +6903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" ht="28">
       <c r="A93" s="9" t="s">
         <v>211</v>
       </c>
@@ -6723,7 +6914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" s="9" t="s">
         <v>212</v>
       </c>
@@ -6734,7 +6925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" s="9" t="s">
         <v>213</v>
       </c>
@@ -6745,7 +6936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" s="9" t="s">
         <v>214</v>
       </c>
@@ -6756,7 +6947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" s="9" t="s">
         <v>215</v>
       </c>
@@ -6767,7 +6958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" s="9" t="s">
         <v>216</v>
       </c>
@@ -6778,7 +6969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" s="9" t="s">
         <v>217</v>
       </c>
@@ -6789,7 +6980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" s="9" t="s">
         <v>98</v>
       </c>
@@ -6800,7 +6991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" s="9" t="s">
         <v>218</v>
       </c>
@@ -6811,7 +7002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" s="9" t="s">
         <v>219</v>
       </c>
@@ -6822,7 +7013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" s="9" t="s">
         <v>220</v>
       </c>
@@ -6833,7 +7024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" s="9" t="s">
         <v>102</v>
       </c>
@@ -6844,7 +7035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" s="9" t="s">
         <v>221</v>
       </c>
@@ -6855,7 +7046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" s="9" t="s">
         <v>222</v>
       </c>
@@ -6866,7 +7057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" s="9" t="s">
         <v>223</v>
       </c>
@@ -6877,7 +7068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" s="9" t="s">
         <v>224</v>
       </c>
@@ -6888,7 +7079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" s="9" t="s">
         <v>225</v>
       </c>
@@ -6899,7 +7090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" s="9" t="s">
         <v>226</v>
       </c>
@@ -6910,7 +7101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" s="9" t="s">
         <v>227</v>
       </c>
@@ -6921,7 +7112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" s="9" t="s">
         <v>228</v>
       </c>
@@ -6932,7 +7123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" s="9" t="s">
         <v>111</v>
       </c>
@@ -6950,26 +7141,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fdb32b0a-6df1-4593-bf63-7f71602d9d10">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="057d7b64-f508-48ef-9a0e-79d33157fe45" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001A5AD457E8C9A440B1EE1EBBE67BEAE9" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="714df8915607d63f81c71e76cb068bfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdb32b0a-6df1-4593-bf63-7f71602d9d10" xmlns:ns3="057d7b64-f508-48ef-9a0e-79d33157fe45" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b557d1b9944ae23a8786c2716089cc86" ns2:_="" ns3:_="">
     <xsd:import namespace="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
@@ -7206,26 +7377,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5AD974-7C31-459C-BBF7-CA441A681369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
-    <ds:schemaRef ds:uri="057d7b64-f508-48ef-9a0e-79d33157fe45"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C61ADF3-5C42-4E1E-955C-0678CB4151CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fdb32b0a-6df1-4593-bf63-7f71602d9d10">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="057d7b64-f508-48ef-9a0e-79d33157fe45" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3467E1DC-FB61-4FE6-BFB4-5C6E1DBE2D11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7242,4 +7414,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C61ADF3-5C42-4E1E-955C-0678CB4151CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5AD974-7C31-459C-BBF7-CA441A681369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
+    <ds:schemaRef ds:uri="057d7b64-f508-48ef-9a0e-79d33157fe45"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inputs compound generator/inputs/compound_features.xlsx
+++ b/inputs compound generator/inputs/compound_features.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\ICRA\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8261FEC-EC62-4C57-A4EA-FDAA90BC44E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD9C6DD-CC29-489E-A2C1-24DF98BC9B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{E2AB2CE8-E54D-4969-B913-27EBF708D95D}"/>
   </bookViews>
@@ -914,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -966,6 +966,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1286,7 +1287,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -1451,9 +1452,12 @@
       <c r="J4" s="12">
         <v>0.9760601435931624</v>
       </c>
+      <c r="K4" s="23">
+        <v>-0.47</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33884415613920255</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -7141,6 +7145,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fdb32b0a-6df1-4593-bf63-7f71602d9d10">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="057d7b64-f508-48ef-9a0e-79d33157fe45" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001A5AD457E8C9A440B1EE1EBBE67BEAE9" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="714df8915607d63f81c71e76cb068bfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdb32b0a-6df1-4593-bf63-7f71602d9d10" xmlns:ns3="057d7b64-f508-48ef-9a0e-79d33157fe45" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b557d1b9944ae23a8786c2716089cc86" ns2:_="" ns3:_="">
     <xsd:import namespace="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
@@ -7377,27 +7401,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5AD974-7C31-459C-BBF7-CA441A681369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
+    <ds:schemaRef ds:uri="057d7b64-f508-48ef-9a0e-79d33157fe45"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fdb32b0a-6df1-4593-bf63-7f71602d9d10">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="057d7b64-f508-48ef-9a0e-79d33157fe45" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C61ADF3-5C42-4E1E-955C-0678CB4151CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3467E1DC-FB61-4FE6-BFB4-5C6E1DBE2D11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7414,23 +7437,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C61ADF3-5C42-4E1E-955C-0678CB4151CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5AD974-7C31-459C-BBF7-CA441A681369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fdb32b0a-6df1-4593-bf63-7f71602d9d10"/>
-    <ds:schemaRef ds:uri="057d7b64-f508-48ef-9a0e-79d33157fe45"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>